--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/15/seed3/result_data_RandomForest.xlsx
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.420499999999995</v>
+        <v>-8.244499999999988</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.103099999999994</v>
+        <v>-8.296699999999994</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.7646</v>
+        <v>-11.62359999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.11460000000001</v>
+        <v>-21.02760000000001</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.879400000000004</v>
+        <v>-7.899700000000007</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.45019999999998</v>
+        <v>-20.46769999999998</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.881699999999988</v>
+        <v>-6.755699999999994</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.66110000000003</v>
+        <v>-22.77320000000003</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>12.70279999999999</v>
+        <v>12.13049999999999</v>
       </c>
     </row>
     <row r="13">
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>6.0133</v>
+        <v>5.846699999999998</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.45720000000003</v>
+        <v>-22.33690000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -774,13 +774,13 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.3769</v>
+        <v>-14.47160000000001</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>12.57759999999999</v>
+        <v>12.2039</v>
       </c>
     </row>
     <row r="21">
@@ -831,7 +831,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>13.7447</v>
+        <v>13.8104</v>
       </c>
     </row>
     <row r="24">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.29039999999999</v>
+        <v>13.28349999999999</v>
       </c>
     </row>
   </sheetData>
